--- a/app/src/main/assets/Computer Systems Architecture.xlsx
+++ b/app/src/main/assets/Computer Systems Architecture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D31137A-2177-4919-AEA3-9C5FFA7B993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E8E129-2A1F-444D-A24C-553A28B743B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="408">
   <si>
     <t>What is the primary function of a microprocessor in a computer system?</t>
   </si>
@@ -1248,6 +1248,9 @@
   </si>
   <si>
     <t>Parallelism</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1587,7 @@
     <col min="6" max="6" width="112.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1606,8 +1609,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1629,8 +1635,11 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1652,8 +1661,11 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1675,8 +1687,11 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1698,8 +1713,11 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1721,8 +1739,11 @@
       <c r="G6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1744,8 +1765,11 @@
       <c r="G7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1767,8 +1791,11 @@
       <c r="G8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -1790,8 +1817,11 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -1813,8 +1843,11 @@
       <c r="G10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -1836,8 +1869,11 @@
       <c r="G11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1859,8 +1895,11 @@
       <c r="G12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -1882,8 +1921,11 @@
       <c r="G13" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -1905,8 +1947,11 @@
       <c r="G14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -1928,8 +1973,11 @@
       <c r="G15" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -1951,8 +1999,11 @@
       <c r="G16" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -1974,8 +2025,11 @@
       <c r="G17" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -1997,8 +2051,11 @@
       <c r="G18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2020,8 +2077,11 @@
       <c r="G19" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -2043,8 +2103,11 @@
       <c r="G20" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -2066,8 +2129,11 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -2089,8 +2155,11 @@
       <c r="G22" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -2112,8 +2181,11 @@
       <c r="G23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -2135,8 +2207,11 @@
       <c r="G24" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -2158,8 +2233,11 @@
       <c r="G25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -2181,8 +2259,11 @@
       <c r="G26" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2204,8 +2285,11 @@
       <c r="G27" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>160</v>
       </c>
@@ -2227,8 +2311,11 @@
       <c r="G28" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>160</v>
       </c>
@@ -2250,8 +2337,11 @@
       <c r="G29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>160</v>
       </c>
@@ -2273,8 +2363,11 @@
       <c r="G30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>160</v>
       </c>
@@ -2296,8 +2389,11 @@
       <c r="G31" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -2319,8 +2415,11 @@
       <c r="G32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -2342,8 +2441,11 @@
       <c r="G33" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>169</v>
       </c>
@@ -2365,8 +2467,11 @@
       <c r="G34" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>169</v>
       </c>
@@ -2388,8 +2493,11 @@
       <c r="G35" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -2411,8 +2519,11 @@
       <c r="G36" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -2434,8 +2545,11 @@
       <c r="G37" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>169</v>
       </c>
@@ -2457,8 +2571,11 @@
       <c r="G38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -2480,8 +2597,11 @@
       <c r="G39" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -2503,8 +2623,11 @@
       <c r="G40" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -2526,8 +2649,11 @@
       <c r="G41" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -2549,8 +2675,11 @@
       <c r="G42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -2572,8 +2701,11 @@
       <c r="G43" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>211</v>
       </c>
@@ -2595,8 +2727,11 @@
       <c r="G44" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>211</v>
       </c>
@@ -2618,8 +2753,11 @@
       <c r="G45" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -2640,6 +2778,9 @@
       </c>
       <c r="G46" t="s">
         <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2649,10 +2790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AE1112-170B-43B5-96E7-611186E70067}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2662,7 +2803,7 @@
     <col min="3" max="3" width="44.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -2672,8 +2813,11 @@
       <c r="C1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2683,8 +2827,11 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2694,8 +2841,11 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2705,8 +2855,11 @@
       <c r="C4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2716,8 +2869,11 @@
       <c r="C5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2727,8 +2883,11 @@
       <c r="C6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2738,8 +2897,11 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2749,8 +2911,11 @@
       <c r="C8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2760,8 +2925,11 @@
       <c r="C9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2771,8 +2939,11 @@
       <c r="C10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2782,8 +2953,11 @@
       <c r="C11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2793,8 +2967,11 @@
       <c r="C12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="C13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2815,8 +2995,11 @@
       <c r="C14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2826,8 +3009,11 @@
       <c r="C15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3023,11 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -2848,8 +3037,11 @@
       <c r="C17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -2859,8 +3051,11 @@
       <c r="C18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -2870,8 +3065,11 @@
       <c r="C19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -2881,8 +3079,11 @@
       <c r="C20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2892,8 +3093,11 @@
       <c r="C21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -2903,8 +3107,11 @@
       <c r="C22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -2914,8 +3121,11 @@
       <c r="C23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -2925,8 +3135,11 @@
       <c r="C24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -2936,8 +3149,11 @@
       <c r="C25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2947,8 +3163,11 @@
       <c r="C26" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -2958,8 +3177,11 @@
       <c r="C27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -2969,8 +3191,11 @@
       <c r="C28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -2980,8 +3205,11 @@
       <c r="C29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -2991,8 +3219,11 @@
       <c r="C30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -3002,8 +3233,11 @@
       <c r="C31" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -3013,8 +3247,11 @@
       <c r="C32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -3024,8 +3261,11 @@
       <c r="C33" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -3035,8 +3275,11 @@
       <c r="C34" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -3046,8 +3289,11 @@
       <c r="C35" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -3057,8 +3303,11 @@
       <c r="C36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -3068,8 +3317,11 @@
       <c r="C37" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3079,8 +3331,11 @@
       <c r="C38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -3090,8 +3345,11 @@
       <c r="C39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -3101,8 +3359,11 @@
       <c r="C40" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -3112,8 +3373,11 @@
       <c r="C41" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -3123,8 +3387,11 @@
       <c r="C42" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -3134,8 +3401,11 @@
       <c r="C43" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -3145,8 +3415,11 @@
       <c r="C44" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -3156,8 +3429,11 @@
       <c r="C45" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -3167,8 +3443,11 @@
       <c r="C46" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -3178,8 +3457,11 @@
       <c r="C47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -3189,8 +3471,11 @@
       <c r="C48" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -3200,8 +3485,11 @@
       <c r="C49" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -3211,8 +3499,11 @@
       <c r="C50" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -3222,8 +3513,11 @@
       <c r="C51" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -3233,8 +3527,11 @@
       <c r="C52" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -3244,8 +3541,11 @@
       <c r="C53" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -3255,8 +3555,11 @@
       <c r="C54" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -3266,8 +3569,11 @@
       <c r="C55" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -3277,8 +3583,11 @@
       <c r="C56" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -3288,8 +3597,11 @@
       <c r="C57" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>160</v>
       </c>
@@ -3299,8 +3611,11 @@
       <c r="C58" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>160</v>
       </c>
@@ -3310,8 +3625,11 @@
       <c r="C59" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>160</v>
       </c>
@@ -3321,8 +3639,11 @@
       <c r="C60" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -3332,8 +3653,11 @@
       <c r="C61" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>169</v>
       </c>
@@ -3343,8 +3667,11 @@
       <c r="C62" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -3354,8 +3681,11 @@
       <c r="C63" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -3365,8 +3695,11 @@
       <c r="C64" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>169</v>
       </c>
@@ -3376,8 +3709,11 @@
       <c r="C65" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>188</v>
       </c>
@@ -3387,8 +3723,11 @@
       <c r="C66" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>188</v>
       </c>
@@ -3398,8 +3737,11 @@
       <c r="C67" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -3409,8 +3751,11 @@
       <c r="C68" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -3420,8 +3765,11 @@
       <c r="C69" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -3431,8 +3779,11 @@
       <c r="C70" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -3442,8 +3793,11 @@
       <c r="C71" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -3453,8 +3807,11 @@
       <c r="C72" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>188</v>
       </c>
@@ -3464,8 +3821,11 @@
       <c r="C73" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -3475,8 +3835,11 @@
       <c r="C74" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>211</v>
       </c>
@@ -3486,8 +3849,11 @@
       <c r="C75" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>211</v>
       </c>
@@ -3497,8 +3863,11 @@
       <c r="C76" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>211</v>
       </c>
@@ -3508,8 +3877,11 @@
       <c r="C77" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -3519,8 +3891,11 @@
       <c r="C78" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>211</v>
       </c>
@@ -3530,8 +3905,11 @@
       <c r="C79" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>211</v>
       </c>
@@ -3541,8 +3919,11 @@
       <c r="C80" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>211</v>
       </c>
@@ -3552,8 +3933,11 @@
       <c r="C81" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>211</v>
       </c>
@@ -3563,8 +3947,11 @@
       <c r="C82" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>211</v>
       </c>
@@ -3574,8 +3961,11 @@
       <c r="C83" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>211</v>
       </c>
@@ -3585,8 +3975,11 @@
       <c r="C84" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -3595,6 +3988,9 @@
       </c>
       <c r="C85" t="s">
         <v>210</v>
+      </c>
+      <c r="D85" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3604,10 +4000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1969E8A-589C-47CF-9266-D86C12E042BC}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3617,7 +4013,7 @@
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3627,8 +4023,11 @@
       <c r="C1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3638,8 +4037,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -3649,8 +4051,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -3660,8 +4065,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -3671,8 +4079,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -3682,8 +4093,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -3693,8 +4107,11 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -3704,8 +4121,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -3715,8 +4135,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -3726,8 +4149,11 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -3737,8 +4163,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -3748,8 +4177,11 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -3759,8 +4191,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -3770,8 +4205,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -3781,8 +4219,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3792,8 +4233,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -3803,8 +4247,11 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3814,8 +4261,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -3825,8 +4275,11 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -3836,8 +4289,11 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -3847,8 +4303,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -3858,8 +4317,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -3869,8 +4331,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3880,8 +4345,11 @@
       <c r="C24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -3891,8 +4359,11 @@
       <c r="C25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3902,8 +4373,11 @@
       <c r="C26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -3913,8 +4387,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -3924,8 +4401,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -3935,8 +4415,11 @@
       <c r="C29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -3946,8 +4429,11 @@
       <c r="C30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>160</v>
       </c>
@@ -3957,8 +4443,11 @@
       <c r="C31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -3968,8 +4457,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -3979,8 +4471,11 @@
       <c r="C33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -3990,8 +4485,11 @@
       <c r="C34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>160</v>
       </c>
@@ -4001,8 +4499,11 @@
       <c r="C35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -4012,8 +4513,11 @@
       <c r="C36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -4023,8 +4527,11 @@
       <c r="C37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -4034,8 +4541,11 @@
       <c r="C38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -4045,8 +4555,11 @@
       <c r="C39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -4056,8 +4569,11 @@
       <c r="C40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>169</v>
       </c>
@@ -4067,8 +4583,11 @@
       <c r="C41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>169</v>
       </c>
@@ -4078,8 +4597,11 @@
       <c r="C42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -4089,8 +4611,11 @@
       <c r="C43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>169</v>
       </c>
@@ -4100,8 +4625,11 @@
       <c r="C44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -4111,8 +4639,11 @@
       <c r="C45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>188</v>
       </c>
@@ -4122,8 +4653,11 @@
       <c r="C46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -4133,8 +4667,11 @@
       <c r="C47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -4144,8 +4681,11 @@
       <c r="C48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -4155,8 +4695,11 @@
       <c r="C49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -4166,8 +4709,11 @@
       <c r="C50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -4177,8 +4723,11 @@
       <c r="C51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>188</v>
       </c>
@@ -4188,8 +4737,11 @@
       <c r="C52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>188</v>
       </c>
@@ -4199,8 +4751,11 @@
       <c r="C53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>188</v>
       </c>
@@ -4210,8 +4765,11 @@
       <c r="C54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>188</v>
       </c>
@@ -4221,8 +4779,11 @@
       <c r="C55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -4232,8 +4793,11 @@
       <c r="C56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -4243,8 +4807,11 @@
       <c r="C57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -4254,8 +4821,11 @@
       <c r="C58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>211</v>
       </c>
@@ -4265,8 +4835,11 @@
       <c r="C59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>211</v>
       </c>
@@ -4276,8 +4849,11 @@
       <c r="C60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>211</v>
       </c>
@@ -4287,8 +4863,11 @@
       <c r="C61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>211</v>
       </c>
@@ -4298,8 +4877,11 @@
       <c r="C62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>211</v>
       </c>
@@ -4308,6 +4890,9 @@
       </c>
       <c r="C63" t="b">
         <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
